--- a/doc/04_DB定義書_A型.xlsx
+++ b/doc/04_DB定義書_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9A507C-B39B-4A26-B74F-6121CA874A3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63EEEE8-F93E-41DE-BFDD-C80E3D6FA414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="129">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -245,14 +245,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_HOME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_GENDER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_PTEMPERTURE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -304,13 +296,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録番号</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>服の大カテゴリー</t>
     <rPh sb="0" eb="1">
       <t>フク</t>
@@ -341,10 +326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>clo_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>clo_IMAGES</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -492,19 +473,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーからは見えない,自動取得</t>
-    <rPh sb="7" eb="8">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>clothesのclo_NOと結合</t>
     <rPh sb="15" eb="17">
       <t>ケツゴウ</t>
@@ -554,13 +522,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像ナンバー</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天気画像</t>
     <rPh sb="0" eb="2">
       <t>テンキ</t>
@@ -571,10 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>weather_NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>weather_IMAGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,13 +591,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>weatherのweather_NOと結合　API</t>
-    <rPh sb="19" eb="21">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リンクを保存する。URL</t>
     <rPh sb="4" eb="6">
       <t>ホゾン</t>
@@ -724,10 +674,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>API決めて再確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WMO気象参照コード</t>
     <rPh sb="3" eb="5">
       <t>キショウ</t>
@@ -752,38 +698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データの増減基本なし　API決めて再確認</t>
-    <rPh sb="4" eb="6">
-      <t>ゾウゲン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>サイカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データの増減基本なし API決めて再確認　オープンメテオ</t>
-    <rPh sb="4" eb="6">
-      <t>ゾウゲン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>サイカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
       <t>イド</t>
@@ -794,28 +708,6 @@
     <t>経度</t>
     <rPh sb="0" eb="2">
       <t>ケイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>都道府県まで　付随して緯度と経度を記録する必要がある。</t>
-    <rPh sb="0" eb="4">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フズイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イド</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケイド</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -887,13 +779,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>28個</t>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>URLを保存　9個</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -902,6 +787,91 @@
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンメテオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">データの増減基本なし </t>
+    <rPh sb="4" eb="6">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの増減基本なし　</t>
+    <rPh sb="4" eb="6">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>47都道府県　付随して緯度と経度を記録する必要がある。</t>
+    <rPh sb="2" eb="6">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フズイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>big_CATEGORYID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small_CATEGORYID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別カテゴリー</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28個　
+unique key + not null制約を組み合わせる</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_HOMEID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_GENDERID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_PTEMPERTUREID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1363,7 +1333,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -1453,16 +1423,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1473,7 +1443,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1485,16 +1455,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1502,16 +1472,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,16 +1489,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1536,16 +1506,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1553,16 +1523,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1570,16 +1540,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1792,7 +1762,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1836,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1848,7 +1818,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1896,32 +1866,32 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>ID int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1929,10 +1899,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
@@ -1940,15 +1910,15 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_HOME varcher (4),</v>
+        <f t="shared" si="0"/>
+        <v>home varcher (4),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1956,13 +1926,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7">
         <v>10</v>
@@ -1970,14 +1940,14 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>latitude varcher (10),</v>
       </c>
     </row>
@@ -1986,13 +1956,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -2000,14 +1970,14 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>longitude varcher (10)</v>
       </c>
     </row>
@@ -2025,7 +1995,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2043,7 +2013,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2061,7 +2031,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2079,7 +2049,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2097,7 +2067,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2115,7 +2085,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2133,7 +2103,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2151,7 +2121,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2169,7 +2139,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2187,7 +2157,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2205,7 +2175,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2223,7 +2193,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2241,7 +2211,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2259,7 +2229,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2277,7 +2247,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2295,7 +2265,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2313,7 +2283,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2333,14 +2303,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="2" max="3" width="20.90625" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
     <col min="6" max="6" width="9.7265625" customWidth="1"/>
@@ -2390,7 +2359,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2438,25 +2407,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2474,7 +2443,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2482,11 +2451,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2504,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2512,7 +2481,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2529,26 +2498,26 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3" t="s">
         <v>120</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_HOME varcher (4),</v>
+        <v>user_HOMEID int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2559,24 +2528,26 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
       <c r="J14" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_GENDER int ,</v>
+        <v>user_GENDERID int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2587,28 +2558,26 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_PTEMPERTURE varcher (2)</v>
+        <v xml:space="preserve">user_PTEMPERTUREID int </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2886,19 +2855,19 @@
         <v>6</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -2918,10 +2887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CAEB72-750A-4694-8112-2D83DC2CF89E}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2965,7 +2934,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2977,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3025,25 +2994,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3052,28 +3021,26 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>74</v>
+      <c r="J11" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3082,7 +3049,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
@@ -3091,71 +3058,69 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3">
-        <v>15</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>day_WEATHERCODE varcher (15),</v>
+        <v>day_WEATHERCODE int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -3168,151 +3133,143 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>day_LTEMPERATURE double ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>day_TOPSNO int ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L31" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>day_TOPSNO varcher ,</v>
+        <f t="shared" si="1"/>
+        <v>day_OUTERNO int ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>day_OUTERNO varcher ,</v>
+        <v xml:space="preserve">day_BOTTOMNO int </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">day_BOTTOMNO varcher </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3330,7 +3287,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3348,7 +3305,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3366,7 +3323,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3384,7 +3341,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3402,7 +3359,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3420,7 +3377,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3438,7 +3395,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3456,7 +3413,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3474,7 +3431,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3492,7 +3449,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3509,25 +3466,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L32" t="s">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3540,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C6DA32-021D-4448-87A7-D154A8560950}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3600,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3609,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3629,7 +3568,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3677,198 +3616,186 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ID int ,</v>
+        <v>95</v>
+      </c>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>clo_NO varcher ,</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>big_CATEGORYID int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>big_CATEGORY varcher ,</v>
+        <v>small_CATEGORYID int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>small_CATEGORY varcher ,</v>
+        <v>clo_IMAGES varcher (100)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>clo_IMAGES varcher (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3880,13 +3807,13 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L31" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3898,13 +3825,13 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3916,13 +3843,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3934,13 +3861,13 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3952,13 +3879,13 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3970,13 +3897,13 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3988,13 +3915,13 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4006,13 +3933,13 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4024,13 +3951,13 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4042,13 +3969,13 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4060,13 +3987,13 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4078,13 +4005,13 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4096,13 +4023,13 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4114,30 +4041,12 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L32" t="s">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4153,7 +4062,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4195,7 +4104,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4203,7 +4112,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4215,7 +4124,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4263,25 +4172,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4293,13 +4202,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -4307,11 +4216,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4659,7 +4568,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4706,14 +4615,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4721,7 +4630,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4769,25 +4678,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4799,13 +4708,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -4813,11 +4722,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5164,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261C8897-E3EE-458C-828E-8D2F31683A0B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5212,14 +5121,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5227,7 +5136,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5275,25 +5184,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5305,13 +5214,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -5319,7 +5228,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5669,7 +5578,549 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table weather (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ID int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>day_WEATHERCODE int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>weather_IMAGE varcher (100),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>weather_EXPRESSION varcher (10)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674747B4-44E1-4B08-A0C8-323F6601B243}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5713,7 +6164,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5725,7 +6176,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5765,7 +6216,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table weather (</v>
+        <v>create table ptemperture (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5773,25 +6224,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -5803,29 +6254,29 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>127</v>
+        <v>35</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>day_WEATHERCODE varcher (1),</v>
+        <v>user_PTEMPERTURE int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5833,29 +6284,27 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>128</v>
+      <c r="J12" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>weather_IMAGE varcher (100),</v>
+        <v>ptem_MAXPTEM int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5863,29 +6312,27 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>129</v>
+      <c r="J13" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>weather_EXPRESSION varcher (10)</v>
+        <v xml:space="preserve">ptem_MINPTEM int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6204,544 +6651,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674747B4-44E1-4B08-A0C8-323F6601B243}">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ptemperture (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ID int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_PTEMPERTURE varcher (2),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>ptem_MAXPTEM int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">ptem_MINPTEM int </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>19</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/04_DB定義書_A型.xlsx
+++ b/doc/04_DB定義書_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63EEEE8-F93E-41DE-BFDD-C80E3D6FA414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA4C10-B36C-4DB8-92F6-954542B7BD2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -413,20 +413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bigcategoryのカテゴリーナンバーと結合</t>
-    <rPh sb="22" eb="24">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>smallcategoryのカテゴリーナンバーと結合</t>
-    <rPh sb="24" eb="26">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>day_DAY</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,28 +459,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>clothesのclo_NOと結合</t>
-    <rPh sb="15" eb="17">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユニーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>usersとclothesのユーザーIDと結合</t>
-    <rPh sb="21" eb="23">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>usersとdailyのユーザーIDと結合</t>
-    <rPh sb="19" eb="21">
-      <t>ケツゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -671,16 +636,6 @@
   </si>
   <si>
     <t>ptem_MINPTEM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WMO気象参照コード</t>
-    <rPh sb="3" eb="5">
-      <t>キショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サンショウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -872,6 +827,45 @@
   </si>
   <si>
     <t>user_PTEMPERTUREID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesのIDと結合</t>
+    <rPh sb="11" eb="13">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersとdailyのIDと結合</t>
+    <rPh sb="15" eb="17">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigcategoryのIDと結合</t>
+    <rPh sb="15" eb="17">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallcategoryのIDと結合</t>
+    <rPh sb="17" eb="19">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WMO気象参照コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersとclothesのIDと結合</t>
+    <rPh sb="17" eb="19">
+      <t>ケツゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1332,8 +1326,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1432,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,7 +1458,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1481,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1489,16 +1483,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1506,16 +1500,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1523,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1540,16 +1534,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1806,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1818,7 +1812,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1866,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -1884,7 +1878,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1899,7 +1893,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -1914,7 +1908,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -1926,10 +1920,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
@@ -1944,7 +1938,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -1956,10 +1950,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -1974,7 +1968,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -2303,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2407,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -2425,7 +2419,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2455,7 +2449,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2498,7 +2492,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -2513,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2528,7 +2522,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -2543,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2558,7 +2552,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>34</v>
@@ -2573,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2889,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CAEB72-750A-4694-8112-2D83DC2CF89E}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2994,10 +2988,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -3012,7 +3006,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3027,7 +3021,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -3040,7 +3034,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3070,7 +3064,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3078,10 +3072,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -3096,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3111,7 +3105,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -3139,7 +3133,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -3167,7 +3161,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -3182,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -3197,7 +3191,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
@@ -3212,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
@@ -3227,7 +3221,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>34</v>
@@ -3242,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
@@ -3482,7 +3476,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3539,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3548,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3616,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -3634,7 +3628,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3664,7 +3658,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3675,7 +3669,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -3690,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3705,7 +3699,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -3720,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3750,7 +3744,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4172,10 +4166,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -4190,7 +4184,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4220,7 +4214,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4622,7 +4616,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4678,10 +4672,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -4696,7 +4690,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4726,7 +4720,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5121,14 +5115,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5136,7 +5130,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5184,10 +5178,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -5202,7 +5196,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5214,10 +5208,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -5578,7 +5572,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5622,7 +5616,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5634,7 +5628,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5682,10 +5676,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -5700,22 +5694,22 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>ID int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>34</v>
@@ -5730,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>day_WEATHERCODE int ,</v>
       </c>
     </row>
@@ -5742,10 +5736,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
@@ -5760,10 +5754,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>weather_IMAGE varcher (100),</v>
       </c>
     </row>
@@ -5772,10 +5766,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -5790,10 +5784,10 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>weather_EXPRESSION varcher (10)</v>
       </c>
     </row>
@@ -5811,7 +5805,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5829,7 +5823,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5847,7 +5841,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5865,7 +5859,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5883,7 +5877,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5901,7 +5895,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5919,7 +5913,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5937,7 +5931,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5955,7 +5949,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5973,7 +5967,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5991,7 +5985,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6009,7 +6003,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6027,7 +6021,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6045,7 +6039,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6063,7 +6057,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6081,7 +6075,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6099,7 +6093,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6164,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6176,7 +6170,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6224,10 +6218,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -6242,7 +6236,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6272,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6284,10 +6278,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -6300,7 +6294,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6312,10 +6306,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -6328,7 +6322,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_A型.xlsx
+++ b/doc/04_DB定義書_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA4C10-B36C-4DB8-92F6-954542B7BD2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB817C0-AB07-4D83-A8F4-F27E0C16C030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="weather" sheetId="10" r:id="rId8"/>
     <sheet name="ptemperture" sheetId="12" r:id="rId9"/>
     <sheet name="latitude and longitude" sheetId="13" r:id="rId10"/>
+    <sheet name="day_weathercode" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="228">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -296,16 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>服の大カテゴリー</t>
-    <rPh sb="0" eb="1">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>服の小カテゴリー</t>
     <rPh sb="0" eb="1">
       <t>フク</t>
@@ -522,16 +513,6 @@
   <si>
     <t>天気コード</t>
     <rPh sb="0" eb="2">
-      <t>テンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録日の天気コード</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
       <t>テンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -791,10 +772,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>big_CATEGORYID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>small_CATEGORYID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -844,13 +821,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bigcategoryのIDと結合</t>
-    <rPh sb="15" eb="17">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>smallcategoryのIDと結合</t>
     <rPh sb="17" eb="19">
       <t>ケツゴウ</t>
@@ -858,12 +828,707 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WMO気象参照コード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>usersとclothesのIDと結合</t>
     <rPh sb="17" eb="19">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大カテゴリーID</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigcategory_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日の天気コードデータ</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_weathercode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９時の天気コード</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１１時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１２時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１３時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１４時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１５時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１６時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１７時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１８時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１９時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２０時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２１時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２２時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２３時の天気コード</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0_weathercode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_weathercode</t>
+  </si>
+  <si>
+    <t>2_weathercode</t>
+  </si>
+  <si>
+    <t>3_weathercode</t>
+  </si>
+  <si>
+    <t>4_weathercode</t>
+  </si>
+  <si>
+    <t>5_weathercode</t>
+  </si>
+  <si>
+    <t>6_weathercode</t>
+  </si>
+  <si>
+    <t>7_weathercode</t>
+  </si>
+  <si>
+    <t>8_weathercode</t>
+  </si>
+  <si>
+    <t>9_weathercode</t>
+  </si>
+  <si>
+    <t>10_weathercode</t>
+  </si>
+  <si>
+    <t>11_weathercode</t>
+  </si>
+  <si>
+    <t>12_weathercode</t>
+  </si>
+  <si>
+    <t>13_weathercode</t>
+  </si>
+  <si>
+    <t>14_weathercode</t>
+  </si>
+  <si>
+    <t>15_weathercode</t>
+  </si>
+  <si>
+    <t>16_weathercode</t>
+  </si>
+  <si>
+    <t>17_weathercode</t>
+  </si>
+  <si>
+    <t>18_weathercode</t>
+  </si>
+  <si>
+    <t>19_weathercode</t>
+  </si>
+  <si>
+    <t>20_weathercode</t>
+  </si>
+  <si>
+    <t>21_weathercode</t>
+  </si>
+  <si>
+    <t>22_weathercode</t>
+  </si>
+  <si>
+    <t>23_weathercode</t>
+  </si>
+  <si>
+    <t>0時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9時の気温</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23時の気温</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_tempertere</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_WEATHERCODEID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日の天気情報</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>テンキジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WMO気象参照コード　day_weatherと結合</t>
+    <rPh sb="23" eb="25">
       <t>ケツゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1327,7 +1992,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1405,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -1417,16 +2082,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1437,7 +2102,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1449,16 +2114,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1466,16 +2131,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1483,16 +2148,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1500,16 +2165,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1517,16 +2182,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1534,25 +2199,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1755,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7FD603-0C1B-482E-AC50-536B12B3AFB6}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1800,7 +2471,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1812,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1860,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -1878,7 +2549,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1893,7 +2564,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -1908,7 +2579,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -1920,17 +2591,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -1938,11 +2607,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>latitude varcher (10),</v>
+        <v>latitude double ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1950,17 +2619,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
@@ -1968,11 +2635,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>longitude varcher (10)</v>
+        <v xml:space="preserve">longitude double </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2285,6 +2952,1312 @@
       <c r="L31" t="s">
         <v>20</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4455AF25-4A10-4321-A78B-075C744459F5}">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table day_weathercode (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ID int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>daily_ID int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>0_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>1_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>2_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>3_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>4_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>5_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>6_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>7_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>8_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>9_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>10_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>11_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>12_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>13_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>14_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>15_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>16_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>17_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>18_weathercode int ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>31</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>37</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>39</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>40</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>41</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>42</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>43</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>44</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>45</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>46</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>47</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>49</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>50</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2298,7 +4271,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2353,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2401,10 +4374,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -2419,7 +4392,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2449,7 +4422,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2492,7 +4465,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -2507,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2522,7 +4495,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -2537,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2552,7 +4525,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>34</v>
@@ -2567,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2849,10 +4822,10 @@
         <v>6</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>34</v>
@@ -2883,8 +4856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CAEB72-750A-4694-8112-2D83DC2CF89E}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2928,7 +4901,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2940,7 +4913,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2988,10 +4961,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -3006,7 +4979,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3021,7 +4994,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -3034,7 +5007,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3064,7 +5037,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3072,10 +5045,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -3090,11 +5063,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>day_WEATHERCODE int ,</v>
+        <v>day_WEATHERCODEID int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3105,7 +5078,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -3133,7 +5106,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -3158,10 +5131,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -3176,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -3188,10 +5161,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
@@ -3206,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
@@ -3218,10 +5191,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>34</v>
@@ -3236,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
@@ -3473,10 +5446,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C6DA32-021D-4448-87A7-D154A8560950}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3533,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3542,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3562,7 +5535,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3610,10 +5583,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -3628,7 +5601,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3658,7 +5631,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3669,7 +5642,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -3684,11 +5657,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>big_CATEGORYID int ,</v>
+        <v>small_CATEGORYID int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3699,56 +5672,44 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>small_CATEGORYID int ,</v>
+        <v>clo_IMAGES varcher (100)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>clo_IMAGES varcher (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3758,14 +5719,14 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3783,7 +5744,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4025,22 +5986,7 @@
       <c r="A30" s="3">
         <v>21</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4056,7 +6002,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4098,7 +6044,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4106,7 +6052,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4118,7 +6064,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4166,10 +6112,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -4184,7 +6130,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4196,10 +6142,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -4214,7 +6160,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4562,7 +6508,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4609,14 +6555,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4624,7 +6570,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4672,10 +6618,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -4690,7 +6636,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4702,10 +6648,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -4720,11 +6666,523 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>small_CATEGORY varcher (10)</v>
+        <v>small_CATEGORY varcher (10),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">bigcategory_ID int </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261C8897-E3EE-458C-828E-8D2F31683A0B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table gender (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>gender_CATEGORY varcher (3)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5063,9 +7521,551 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261C8897-E3EE-458C-828E-8D2F31683A0B}">
-  <dimension ref="A1:L30"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EE6B1B-518B-4D93-92EA-EBE0C18FCFF0}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table weather (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ID int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>day_WEATHERCODE int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>weather_IMAGE varcher (100),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>weather_EXPRESSION varcher (10)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674747B4-44E1-4B08-A0C8-323F6601B243}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -5106,31 +8106,25 @@
         <v>4</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="I3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="I4" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5170,7 +8164,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table gender (</v>
+        <v>create table ptemperture (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5178,10 +8172,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -5196,604 +8190,102 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>88</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ID int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>gender_CATEGORY varcher (3)</v>
+        <v>user_PTEMPERTURE int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>ptem_MAXPTEM int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">ptem_MINPTEM int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EE6B1B-518B-4D93-92EA-EBE0C18FCFF0}">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table weather (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ID int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>day_WEATHERCODE int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>weather_IMAGE varcher (100),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>weather_EXPRESSION varcher (10)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5805,13 +8297,13 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5823,13 +8315,13 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5847,7 +8339,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5865,7 +8357,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5883,7 +8375,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5901,7 +8393,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5919,7 +8411,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5937,7 +8429,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5955,7 +8447,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5973,7 +8465,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5991,7 +8483,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6009,7 +8501,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6027,7 +8519,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6045,7 +8537,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6063,7 +8555,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6081,7 +8573,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6107,542 +8599,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674747B4-44E1-4B08-A0C8-323F6601B243}">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ptemperture (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ID int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_PTEMPERTURE int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>ptem_MAXPTEM int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">ptem_MINPTEM int </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>19</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/04_DB定義書_A型.xlsx
+++ b/doc/04_DB定義書_A型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB817C0-AB07-4D83-A8F4-F27E0C16C030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C47C2-46D0-48CB-AAF3-DB10AA08BAC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="225">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1510,27 +1510,6 @@
   </si>
   <si>
     <t>23_temperture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>day_WEATHERCODEID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一日の天気情報</t>
-    <rPh sb="0" eb="2">
-      <t>イチニチ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>テンキジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WMO気象参照コード　day_weatherと結合</t>
-    <rPh sb="23" eb="25">
-      <t>ケツゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1992,7 +1971,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2426,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7FD603-0C1B-482E-AC50-536B12B3AFB6}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2964,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4455AF25-4A10-4321-A78B-075C744459F5}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3140,9 +3119,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="J12" s="8"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>0_weathercode int ,</v>
@@ -3168,9 +3145,7 @@
         <v>35</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="J13" s="8"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>1_weathercode int ,</v>
@@ -4271,7 +4246,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4856,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CAEB72-750A-4694-8112-2D83DC2CF89E}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5045,13 +5020,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5062,12 +5037,10 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>day_WEATHERCODEID int ,</v>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5075,15 +5048,15 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
@@ -5094,7 +5067,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>day_HTEMPERATURE double ,</v>
       </c>
     </row>
@@ -5103,15 +5076,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
@@ -5120,9 +5093,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>day_LTEMPERATURE double ,</v>
       </c>
     </row>
@@ -5131,10 +5106,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -5152,7 +5127,7 @@
         <v>120</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L30" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>day_TOPSNO int ,</v>
       </c>
     </row>
@@ -5161,10 +5136,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
@@ -5190,27 +5165,15 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">day_BOTTOMNO int </v>
@@ -5415,18 +5378,6 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
@@ -5449,7 +5400,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6001,8 +5952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F94A042-78D3-4871-88ED-033E702C0D90}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7526,7 +7477,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8067,7 +8018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674747B4-44E1-4B08-A0C8-323F6601B243}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_A型.xlsx
+++ b/doc/04_DB定義書_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C47C2-46D0-48CB-AAF3-DB10AA08BAC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C984250-3960-47B2-A15F-90FE730F674C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20560" yWindow="1060" windowWidth="14400" windowHeight="7270" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="228">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1510,6 +1510,33 @@
   </si>
   <si>
     <t>23_temperture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索した時間の気温又は天気コード</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search_weatherinformation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2941,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4455AF25-4A10-4321-A78B-075C744459F5}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3717,7 +3744,7 @@
         <v>201</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3739,7 +3766,7 @@
         <v>202</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3761,7 +3788,7 @@
         <v>203</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3783,7 +3810,7 @@
         <v>204</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3805,7 +3832,7 @@
         <v>205</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3827,7 +3854,7 @@
         <v>206</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3849,7 +3876,7 @@
         <v>207</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3871,7 +3898,7 @@
         <v>208</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3893,7 +3920,7 @@
         <v>209</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3915,7 +3942,7 @@
         <v>210</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3937,7 +3964,7 @@
         <v>211</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3959,7 +3986,7 @@
         <v>212</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3981,7 +4008,7 @@
         <v>213</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -4003,7 +4030,7 @@
         <v>214</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -4025,7 +4052,7 @@
         <v>215</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -4047,7 +4074,7 @@
         <v>216</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -4069,7 +4096,7 @@
         <v>217</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -4091,7 +4118,7 @@
         <v>218</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -4113,7 +4140,7 @@
         <v>219</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -4135,7 +4162,7 @@
         <v>220</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -4157,7 +4184,7 @@
         <v>221</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -4179,7 +4206,7 @@
         <v>222</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4201,7 +4228,7 @@
         <v>223</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -4223,7 +4250,7 @@
         <v>224</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -4233,6 +4260,44 @@
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>51</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>52</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4831,8 +4896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CAEB72-750A-4694-8112-2D83DC2CF89E}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
